--- a/src/app/testGR.xlsx
+++ b/src/app/testGR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -28,36 +28,12 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Καθηγητής</t>
-  </si>
-  <si>
-    <t>Διδακτορικός</t>
-  </si>
-  <si>
-    <t>Φοιτητής</t>
-  </si>
-  <si>
     <t>Επώνυμο1</t>
   </si>
   <si>
-    <t>Όνομα2</t>
-  </si>
-  <si>
     <t>Όνομα1</t>
   </si>
   <si>
-    <t>Επώνυμο2</t>
-  </si>
-  <si>
-    <t>Όνομα3</t>
-  </si>
-  <si>
-    <t>Όνομα4</t>
-  </si>
-  <si>
     <t>Όνομα5</t>
   </si>
   <si>
@@ -85,12 +61,6 @@
     <t>Όνομα13</t>
   </si>
   <si>
-    <t>Επώνυμο3</t>
-  </si>
-  <si>
-    <t>Επώνυμο4</t>
-  </si>
-  <si>
     <t>Επώνυμο5</t>
   </si>
   <si>
@@ -116,6 +86,33 @@
   </si>
   <si>
     <t>Επώνυμο13</t>
+  </si>
+  <si>
+    <t>ΤΕΣΤ</t>
+  </si>
+  <si>
+    <t>ΤΕΣΤΜΕΓΑΛΟΕΠΙΘΕΤΟ</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ΤΕΣΤΟΝΟΜΑ</t>
+  </si>
+  <si>
+    <t>ΜΑΛΑΚΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΑΛΑΚΑΣ123</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
   </si>
 </sst>
 </file>
@@ -457,13 +454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,150 +473,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
